--- a/xlsx/硕士_intext.xlsx
+++ b/xlsx/硕士_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E8%BE%A9%E5%BC%8F%E6%80%9D%E7%BB%B4</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>學士</t>
+    <t>学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>文學碩士</t>
+    <t>文学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>理學碩士</t>
+    <t>理学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>公共行政碩士</t>
+    <t>公共行政硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>商學碩士</t>
+    <t>商学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>研究碩士</t>
+    <t>研究硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%96%87</t>
   </si>
   <si>
-    <t>論文</t>
+    <t>论文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>商學院</t>
+    <t>商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E4%B8%9A%E7%A1%95%E5%A3%AB</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A9%E5%A3%AB%E5%AD%B8%E5%88%86%E7%8F%AD</t>
   </si>
   <si>
-    <t>碩士學分班</t>
+    <t>硕士学分班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%AD%A6%E4%BD%8D</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>專科學校</t>
+    <t>专科学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>副學士</t>
+    <t>副学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>副學位</t>
+    <t>副学位</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Graduate_certificate</t>
@@ -221,37 +221,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E8%81%B7%E5%B0%88%E7%8F%AD</t>
   </si>
   <si>
-    <t>在職專班</t>
+    <t>在职专班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%9C%E6%8E%A5%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>銜接學士</t>
+    <t>衔接学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>雙學士</t>
+    <t>双学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%81%AF%E5%AD%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>雙聯學制</t>
+    <t>双联学制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%AF%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>三聯學位</t>
+    <t>三联学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%BE%8C</t>
   </si>
   <si>
-    <t>學士後</t>
+    <t>学士后</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Postgraduate_certificate</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E9%80%A0%E6%96%87%E6%86%91</t>
   </si>
   <si>
-    <t>深造文憑</t>
+    <t>深造文凭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Diplom</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>哲學博士</t>
+    <t>哲学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%8D%9A%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>全博士學位</t>
+    <t>全博士学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AE%B8%E4%BB%BB%E6%95%99%E8%B5%84%E6%A0%BC</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9B%E5%BA%A7%E6%95%99%E6%8E%88</t>
   </si>
   <si>
-    <t>講座教授</t>
+    <t>讲座教授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%88%E8%BA%AB%E6%95%99%E6%8E%88</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
